--- a/app/Docs/Lab02/Lab02_BBT_TCs_Mihaila.xlsx
+++ b/app/Docs/Lab02/Lab02_BBT_TCs_Mihaila.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daria\Documents\UBB\An3\Sem2\SVSS\Lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8C1B8B-7517-4EC4-B358-7EFA54F230D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C345F938-F988-412B-A20C-0C967FE4DB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1932" yWindow="1932" windowWidth="17280" windowHeight="8880" xr2:uid="{0EA73432-D1DD-467E-88DD-C9D07FF96E87}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{0EA73432-D1DD-467E-88DD-C9D07FF96E87}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Funktionalität01:</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Gruppe:</t>
   </si>
   <si>
-    <t>732/2</t>
-  </si>
-  <si>
     <t>Titel:</t>
   </si>
   <si>
@@ -165,6 +162,12 @@
   </si>
   <si>
     <t>31.03.2023</t>
+  </si>
+  <si>
+    <t>Testen der RegEx Epressions die E-mail und Paswort </t>
+  </si>
+  <si>
+    <t>732/1</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A2:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,20 +556,23 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -609,67 +615,67 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -677,7 +683,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -685,7 +691,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>0</v>
